--- a/inst/doc/default_database/xlsx/LOBSTAHS_componentCompTable.xlsx
+++ b/inst/doc/default_database/xlsx/LOBSTAHS_componentCompTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBSTAHS-JEH\inst\doc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/LOBSTAHS/inst/doc/default_database/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D04D8-8E01-1149-8980-B0AAD489C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11835" tabRatio="500"/>
+    <workbookView xWindow="40700" yWindow="2360" windowWidth="31440" windowHeight="18220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -728,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -1260,26 +1270,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane ySplit="945" activePane="bottomLeft"/>
-      <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1080" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="4.5" customWidth="1"/>
     <col min="19" max="19" width="23.5" customWidth="1"/>
     <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>12</v>
       </c>
@@ -1332,7 +1342,7 @@
         <v>13.003355000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>204</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>376.29774546600004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>408.28757471</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>208</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>392.29266008799999</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>34.005479324</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>227</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>428.36543116400003</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>384.33921638200002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>403.35760612400003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>401.34195604400003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -2018,7 +2028,7 @@
         <v>312.29044620400003</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>737.73659557199994</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2235,7 @@
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2294,7 +2304,7 @@
         <v>266.12397715899999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2363,7 +2373,7 @@
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>431.14008078799998</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>"L"&amp;A18</f>
         <v>LDGTS_DGTA</v>
@@ -2588,7 +2598,7 @@
         <v>250.12906253700001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>122.02152335</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>107.034433768</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>202</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>596.38656056800005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -2933,7 +2943,7 @@
         <v>201.98785376800001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>229</v>
       </c>
@@ -3002,7 +3012,7 @@
         <v>187.00076418600003</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>"L"&amp;A26</f>
         <v>LPE</v>
@@ -3158,7 +3168,7 @@
         <v>230.042963391</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>"L"&amp;A28</f>
         <v>LPG</v>
@@ -3314,7 +3324,7 @@
         <v>261.03754366999999</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3393,7 @@
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +3600,7 @@
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>"L"&amp;A33</f>
         <v>LSQDG</v>
@@ -3677,7 +3687,7 @@
         <v>333.04915721200001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +3825,7 @@
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>"L"&amp;A36</f>
         <v>LMGDG</v>
@@ -3902,7 +3912,7 @@
         <v>269.08725727800004</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3968,7 +3978,7 @@
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4110,7 @@
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -4166,7 +4176,7 @@
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -4232,7 +4242,7 @@
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -4298,7 +4308,7 @@
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -4430,7 +4440,7 @@
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -4694,7 +4704,7 @@
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -4826,7 +4836,7 @@
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -4958,7 +4968,7 @@
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>24</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>29</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -5222,7 +5232,7 @@
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -5288,7 +5298,7 @@
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
@@ -5354,7 +5364,7 @@
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -5492,7 +5502,7 @@
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -5630,7 +5640,7 @@
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -5699,7 +5709,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -5837,7 +5847,7 @@
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -5906,7 +5916,7 @@
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -6044,7 +6054,7 @@
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -6113,7 +6123,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -6182,7 +6192,7 @@
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -6251,7 +6261,7 @@
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -6459,7 +6469,7 @@
       </c>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -6529,7 +6539,7 @@
       </c>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -6599,7 +6609,7 @@
       </c>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -6669,7 +6679,7 @@
       </c>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -6739,7 +6749,7 @@
       </c>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -6809,7 +6819,7 @@
       </c>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -6879,7 +6889,7 @@
       </c>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>91</v>
       </c>
@@ -6949,7 +6959,7 @@
       </c>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>92</v>
       </c>
@@ -7019,7 +7029,7 @@
       </c>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
@@ -7089,7 +7099,7 @@
       </c>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>94</v>
       </c>
@@ -7159,7 +7169,7 @@
       </c>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>101</v>
       </c>
@@ -7229,7 +7239,7 @@
       </c>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>95</v>
       </c>
@@ -7299,7 +7309,7 @@
       </c>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>96</v>
       </c>
@@ -7369,7 +7379,7 @@
       </c>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>97</v>
       </c>
@@ -7439,7 +7449,7 @@
       </c>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
@@ -7509,7 +7519,7 @@
       </c>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>100</v>
       </c>
@@ -7579,7 +7589,7 @@
       </c>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>102</v>
       </c>
@@ -7649,7 +7659,7 @@
       </c>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>104</v>
       </c>
@@ -7719,7 +7729,7 @@
       </c>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>122</v>
       </c>
@@ -7789,7 +7799,7 @@
       </c>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>123</v>
       </c>
@@ -7859,7 +7869,7 @@
       </c>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>124</v>
       </c>
@@ -7929,7 +7939,7 @@
       </c>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>125</v>
       </c>
@@ -7999,7 +8009,7 @@
       </c>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>126</v>
       </c>
@@ -8069,7 +8079,7 @@
       </c>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>127</v>
       </c>
@@ -8139,7 +8149,7 @@
       </c>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>128</v>
       </c>
@@ -8209,7 +8219,7 @@
       </c>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>129</v>
       </c>
@@ -8279,7 +8289,7 @@
       </c>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>130</v>
       </c>
@@ -8349,7 +8359,7 @@
       </c>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>131</v>
       </c>
@@ -8419,7 +8429,7 @@
       </c>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>132</v>
       </c>
@@ -8489,7 +8499,7 @@
       </c>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>133</v>
       </c>
@@ -8559,7 +8569,7 @@
       </c>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>134</v>
       </c>
@@ -8629,7 +8639,7 @@
       </c>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>135</v>
       </c>
@@ -8699,7 +8709,7 @@
       </c>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -8769,7 +8779,7 @@
       </c>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -8839,7 +8849,7 @@
       </c>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -8909,7 +8919,7 @@
       </c>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -8979,7 +8989,7 @@
       </c>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
@@ -9049,7 +9059,7 @@
       </c>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -9119,7 +9129,7 @@
       </c>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -9189,7 +9199,7 @@
       </c>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -9258,7 +9268,7 @@
         <v>522.37091048800005</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -9327,7 +9337,7 @@
         <v>590.43351080800005</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -9397,7 +9407,7 @@
       </c>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -9466,7 +9476,7 @@
         <v>726.55871144800005</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -9535,7 +9545,7 @@
         <v>794.62131176800006</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -9604,7 +9614,7 @@
         <v>862.68391208800006</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -9673,7 +9683,7 @@
         <v>930.74651240800006</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -9742,7 +9752,7 @@
         <v>998.80911272800006</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -9811,7 +9821,7 @@
         <v>1066.8717130479999</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>174</v>
       </c>
@@ -9880,7 +9890,7 @@
         <v>444.11276917200001</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>176</v>
       </c>
@@ -9949,7 +9959,7 @@
         <v>518.13156403400001</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>177</v>
       </c>
@@ -10018,7 +10028,7 @@
         <v>592.15035889599994</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>178</v>
       </c>
@@ -10087,7 +10097,7 @@
         <v>666.16915375799999</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>179</v>
       </c>
@@ -10156,7 +10166,7 @@
         <v>740.18794862000004</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>180</v>
       </c>
@@ -10225,7 +10235,7 @@
         <v>814.20674348199998</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>181</v>
       </c>
@@ -10294,7 +10304,7 @@
         <v>888.22553834400003</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>182</v>
       </c>
@@ -10363,7 +10373,7 @@
         <v>962.24433320599996</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>183</v>
       </c>
@@ -10432,7 +10442,7 @@
         <v>1036.263128068</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>184</v>
       </c>
@@ -10501,7 +10511,7 @@
         <v>1110.2819229299998</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>185</v>
       </c>
@@ -10570,7 +10580,7 @@
         <v>1184.3007177919999</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>186</v>
       </c>
@@ -10639,7 +10649,7 @@
         <v>1258.3195126539999</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>187</v>
       </c>
@@ -10708,7 +10718,7 @@
         <v>1332.338307516</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>188</v>
       </c>
@@ -10777,7 +10787,7 @@
         <v>1406.357102378</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>189</v>
       </c>
@@ -10846,7 +10856,7 @@
         <v>1480.3758972400001</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>190</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>1554.3946921020001</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>191</v>
       </c>
@@ -10984,7 +10994,7 @@
         <v>1628.413486964</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>192</v>
       </c>
@@ -11053,7 +11063,7 @@
         <v>1702.432281826</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>193</v>
       </c>
@@ -11122,7 +11132,7 @@
         <v>1776.4510766880001</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>194</v>
       </c>
@@ -11191,7 +11201,7 @@
         <v>1850.4698715499999</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>195</v>
       </c>
@@ -11260,7 +11270,7 @@
         <v>1924.4886664119999</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>196</v>
       </c>
@@ -11329,19 +11339,19 @@
         <v>1998.507461274</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V149" s="4"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V150" s="4"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V151" s="4"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V152" s="4"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="V153" s="4"/>
     </row>
   </sheetData>
@@ -11351,21 +11361,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -11427,7 +11437,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>204</v>
       </c>
@@ -11492,7 +11502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>207</v>
       </c>
@@ -11557,7 +11567,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>208</v>
       </c>
@@ -11622,7 +11632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -11687,7 +11697,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -11752,7 +11762,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -11817,7 +11827,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -11947,7 +11957,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -12012,7 +12022,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -12077,7 +12087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -12142,7 +12152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12207,7 +12217,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -12272,7 +12282,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12337,7 +12347,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -12402,7 +12412,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -12532,7 +12542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -12597,7 +12607,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -12662,7 +12672,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -12727,7 +12737,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -12792,7 +12802,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -12857,7 +12867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -12922,7 +12932,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -12987,7 +12997,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -13052,7 +13062,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -13117,7 +13127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -13182,7 +13192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -13247,7 +13257,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -13312,7 +13322,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -13377,7 +13387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -13442,7 +13452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -13507,7 +13517,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -13572,7 +13582,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -13637,7 +13647,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>223</v>
       </c>
@@ -13702,7 +13712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -13764,7 +13774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -13826,7 +13836,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -13888,7 +13898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -13950,7 +13960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -14012,7 +14022,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -14074,7 +14084,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -14136,7 +14146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -14198,7 +14208,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -14260,7 +14270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -14322,7 +14332,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -14384,7 +14394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -14446,7 +14456,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -14508,7 +14518,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -14570,7 +14580,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -14632,7 +14642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>23</v>
       </c>
@@ -14694,7 +14704,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
@@ -14756,7 +14766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
@@ -14818,7 +14828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
@@ -14880,7 +14890,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
@@ -14942,7 +14952,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
@@ -15004,7 +15014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>28</v>
       </c>
@@ -15066,7 +15076,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>20</v>
       </c>
@@ -15131,7 +15141,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -15196,7 +15206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -15261,7 +15271,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -15326,7 +15336,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -15391,7 +15401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -15456,7 +15466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -15521,7 +15531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -15586,7 +15596,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>66</v>
       </c>
@@ -15651,7 +15661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -15716,7 +15726,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -15781,7 +15791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -15846,7 +15856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -15911,7 +15921,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -15976,7 +15986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -16041,7 +16051,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -16106,7 +16116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -16171,7 +16181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -16236,7 +16246,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -16301,7 +16311,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -16366,7 +16376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -16431,7 +16441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -16496,7 +16506,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>91</v>
       </c>
@@ -16561,7 +16571,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -16626,7 +16636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
@@ -16691,7 +16701,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -16756,7 +16766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>101</v>
       </c>
@@ -16821,7 +16831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>95</v>
       </c>
@@ -16886,7 +16896,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>96</v>
       </c>
@@ -16951,7 +16961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>97</v>
       </c>
@@ -17016,7 +17026,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>98</v>
       </c>
@@ -17081,7 +17091,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
@@ -17146,7 +17156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>102</v>
       </c>
@@ -17211,7 +17221,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>104</v>
       </c>
@@ -17276,7 +17286,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>122</v>
       </c>
@@ -17341,7 +17351,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>123</v>
       </c>
@@ -17406,7 +17416,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>124</v>
       </c>
@@ -17471,7 +17481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>125</v>
       </c>
@@ -17536,7 +17546,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>126</v>
       </c>
@@ -17601,7 +17611,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>127</v>
       </c>
@@ -17666,7 +17676,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>128</v>
       </c>
@@ -17731,7 +17741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>129</v>
       </c>
@@ -17796,7 +17806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>130</v>
       </c>
@@ -17861,7 +17871,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -17926,7 +17936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>132</v>
       </c>
@@ -17991,7 +18001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>133</v>
       </c>
@@ -18056,7 +18066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>134</v>
       </c>
@@ -18121,7 +18131,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>135</v>
       </c>
@@ -18186,7 +18196,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>106</v>
       </c>
@@ -18251,7 +18261,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>107</v>
       </c>
@@ -18316,7 +18326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>108</v>
       </c>
@@ -18381,7 +18391,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>109</v>
       </c>
@@ -18446,7 +18456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>110</v>
       </c>
@@ -18511,7 +18521,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>111</v>
       </c>
@@ -18576,7 +18586,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>112</v>
       </c>
@@ -18641,7 +18651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>113</v>
       </c>
@@ -18706,7 +18716,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>114</v>
       </c>
@@ -18771,7 +18781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>115</v>
       </c>
@@ -18836,7 +18846,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -18901,7 +18911,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>117</v>
       </c>
@@ -18966,7 +18976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>118</v>
       </c>
@@ -19031,7 +19041,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>119</v>
       </c>
@@ -19096,7 +19106,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>120</v>
       </c>
@@ -19161,7 +19171,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>121</v>
       </c>
@@ -19226,7 +19236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>174</v>
       </c>
@@ -19291,7 +19301,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>176</v>
       </c>
@@ -19356,7 +19366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>177</v>
       </c>
@@ -19421,7 +19431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>178</v>
       </c>
@@ -19486,7 +19496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>179</v>
       </c>
@@ -19551,7 +19561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>180</v>
       </c>
@@ -19616,7 +19626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>181</v>
       </c>
@@ -19681,7 +19691,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>182</v>
       </c>
@@ -19746,7 +19756,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>183</v>
       </c>
@@ -19811,7 +19821,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>184</v>
       </c>
@@ -19876,7 +19886,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>185</v>
       </c>
@@ -19941,7 +19951,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>186</v>
       </c>
@@ -20006,7 +20016,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>187</v>
       </c>
@@ -20071,7 +20081,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>188</v>
       </c>
@@ -20136,7 +20146,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>189</v>
       </c>
@@ -20201,7 +20211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>190</v>
       </c>
@@ -20266,7 +20276,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>191</v>
       </c>
@@ -20331,7 +20341,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>192</v>
       </c>
@@ -20396,7 +20406,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>193</v>
       </c>
@@ -20461,7 +20471,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>194</v>
       </c>
@@ -20526,7 +20536,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>195</v>
       </c>
@@ -20591,7 +20601,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>196</v>
       </c>
@@ -20656,32 +20666,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="R145" s="7"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="R146" s="7"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="R147" s="7"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="R148" s="7"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R149" s="7"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R150" s="7"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R151" s="7"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R152" s="7"/>
     </row>
   </sheetData>
@@ -20691,16 +20701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -20708,7 +20718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -20716,7 +20726,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -20724,7 +20734,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -20732,7 +20742,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -20740,7 +20750,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -20748,7 +20758,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20756,7 +20766,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -20764,7 +20774,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -20772,7 +20782,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -20780,7 +20790,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -20788,7 +20798,7 @@
         <v>5.4857990924000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -20796,7 +20806,7 @@
         <v>23.985045</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -20804,7 +20814,7 @@
         <v>27.97692649</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -20812,7 +20822,7 @@
         <v>2.0141019999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -20827,85 +20837,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="167.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -20916,7 +20926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42327</v>
       </c>
@@ -20927,7 +20937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42328</v>
       </c>
@@ -20938,7 +20948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42329</v>
       </c>
@@ -20949,7 +20959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42344</v>
       </c>
@@ -20960,7 +20970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42344</v>
       </c>
@@ -20971,7 +20981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42371</v>
       </c>
@@ -20982,7 +20992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42607</v>
       </c>
@@ -20993,7 +21003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42624</v>
       </c>
@@ -21004,7 +21014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>42709</v>
       </c>
@@ -21015,7 +21025,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>42719</v>
       </c>
@@ -21026,7 +21036,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>42758</v>
       </c>
@@ -21037,7 +21047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>42758</v>
       </c>
@@ -21048,7 +21058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>42758</v>
       </c>
@@ -21059,7 +21069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>42758</v>
       </c>
@@ -21070,7 +21080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>42758</v>
       </c>
@@ -21081,7 +21091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>42759</v>
       </c>
@@ -21092,7 +21102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>42759</v>
       </c>
@@ -21103,7 +21113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>42760</v>
       </c>
@@ -21114,7 +21124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>42769</v>
       </c>
@@ -21125,7 +21135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>42779</v>
       </c>
@@ -21136,7 +21146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>42964</v>
       </c>
@@ -21147,7 +21157,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>42965</v>
       </c>
@@ -21158,7 +21168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43013</v>
       </c>
